--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28800" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>名称</t>
   </si>
@@ -61,19 +61,19 @@
     <t>condition_list</t>
   </si>
   <si>
-    <t>测试塔</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>辣鸡</t>
+  </si>
+  <si>
+    <t>910000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -109,6 +109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,54 +123,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +145,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -191,17 +177,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,38 +230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,37 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,145 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +476,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,39 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,22 +550,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,148 +578,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,54 +739,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1053,23 +1053,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14423076923077" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8365384615385" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.95" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="46.9519230769231" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.14423076923077" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">

--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>名称</t>
   </si>
@@ -31,7 +31,7 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>条件</t>
+    <t>技能</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>Skills</t>
   </si>
   <si>
     <t>string</t>
@@ -58,7 +58,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>condition_list</t>
+    <t>int_array</t>
   </si>
   <si>
     <t>辣鸡</t>
@@ -82,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -109,13 +109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,9 +116,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,63 +200,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,51 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +476,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +517,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,21 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,26 +554,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,160 +578,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,54 +736,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1053,39 +1050,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14423076923077" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.9519230769231" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.14423076923077" style="1"/>
+    <col min="5" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1093,19 +1089,19 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1113,19 +1109,19 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1133,19 +1129,19 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2"/>
@@ -1156,7 +1152,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -73,7 +73,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>200</t>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>名称</t>
   </si>
@@ -22,6 +22,9 @@
     <t>编号</t>
   </si>
   <si>
+    <t>形象</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Atk</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>910000</t>
+  </si>
+  <si>
+    <t>100910000</t>
   </si>
   <si>
     <t>3</t>
@@ -1052,23 +1061,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14166666666667" style="1"/>
+    <col min="2" max="3" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,72 +1096,85 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -82,7 +82,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>100</t>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>

--- a/Tables/Monster.xlsx
+++ b/Tables/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28800" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>名称</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>Skills</t>
+    <t>SkillClass</t>
   </si>
   <si>
     <t>string</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,6 +118,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,26 +132,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -153,6 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -163,14 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,78 +224,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,17 +485,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,66 +563,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,54 +745,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1059,22 +1059,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14423076923077" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.8365384615385" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14166666666667" style="1"/>
+    <col min="8" max="16384" width="9.14423076923077" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
